--- a/doc/oodb_implementation.xlsx
+++ b/doc/oodb_implementation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="751" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
   <si>
     <t xml:space="preserve">Лабораторная 1</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">Баев Даниил Николаевич</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/danivichkin/oodb</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
@@ -266,10 +269,16 @@
     <t xml:space="preserve">Зубрилин Роман Витальевич</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/Rom555/OODB/issues/1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Магасумов Никита Евгеньевич</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/magasumovn/oodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Максютов Марсель Уралович</t>
@@ -463,19 +472,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +533,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -622,7 +637,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,15 +658,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,7 +714,7 @@
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -758,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -854,8 +873,23 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="L3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,25 +897,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
+      <c r="M4" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -889,11 +929,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="L5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -901,11 +941,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="L6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -913,19 +953,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>5</v>
@@ -934,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>5</v>
@@ -948,31 +988,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>18</v>
+      <c r="K8" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,16 +1026,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -997,11 +1046,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="L10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1009,11 +1058,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="L11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1021,11 +1070,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="L12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1033,11 +1082,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="L13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1045,19 +1094,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>29</v>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -1066,10 +1115,13 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1077,11 +1129,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="L15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -1118,11 +1170,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="L17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1130,19 +1182,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1150,11 +1214,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="L19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1162,11 +1226,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="L20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,14 +1238,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="0" t="n">
         <v>5</v>
       </c>
@@ -1192,6 +1256,9 @@
         <v>5</v>
       </c>
       <c r="K21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1200,13 +1267,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>6</v>
@@ -1218,9 +1285,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1229,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1316,14 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://github.com/BbeHumble/oodb"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://github.com/ChulpanG/oodb."/>
-    <hyperlink ref="D14" r:id="rId3" display="https://github.com/razelenov/oodb/tree/master/lab1"/>
-    <hyperlink ref="F14" r:id="rId4" display="https://github.com/razelenov/oodb/tree/master/lab2 "/>
-    <hyperlink ref="D16" r:id="rId5" display="https://github.com/NightSkyAsHate/oodb"/>
-    <hyperlink ref="D21" r:id="rId6" display="https://github.com/aliyaverycool99/DB/blob/master/Lub1_09-751_Нургалиева.txt"/>
-    <hyperlink ref="D22" r:id="rId7" display="https://github.com/Sunmar1/Database/tree/master/lab1"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://github.com/danivichkin/oodb"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://github.com/BbeHumble/oodb"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://github.com/ChulpanG/oodb."/>
+    <hyperlink ref="D14" r:id="rId4" display="https://github.com/razelenov/oodb/tree/master/lab1"/>
+    <hyperlink ref="F14" r:id="rId5" display="https://github.com/razelenov/oodb/tree/master/lab2 "/>
+    <hyperlink ref="D16" r:id="rId6" display="https://github.com/NightSkyAsHate/oodb"/>
+    <hyperlink ref="D21" r:id="rId7" display="https://github.com/aliyaverycool99/DB/blob/master/Lub1_09-751_Нургалиева.txt"/>
+    <hyperlink ref="D22" r:id="rId8" display="https://github.com/Sunmar1/Database/tree/master/lab1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1271,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,119 +1433,130 @@
     </row>
     <row r="3" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5</v>
@@ -1483,37 +1565,40 @@
         <v>5</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="C14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="E14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
       </c>
@@ -1521,104 +1606,117 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="C17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
-        <v>70</v>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1655,8 +1753,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1749,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -1758,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
@@ -1773,6 +1871,12 @@
         <v>5</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1781,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -1790,32 +1894,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
       </c>
@@ -1826,44 +1930,70 @@
         <v>5</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M8" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="10" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>5</v>
+      <c r="G10" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1872,13 +2002,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -1895,13 +2025,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -1913,9 +2043,12 @@
         <v>5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1924,13 +2057,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
@@ -1938,8 +2071,17 @@
       <c r="G13" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,13 +2089,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>89</v>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -1965,7 +2107,13 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,13 +2121,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,13 +2135,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -2003,6 +2151,12 @@
       </c>
       <c r="I16" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +2164,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -2019,13 +2173,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -2037,6 +2191,9 @@
         <v>5</v>
       </c>
       <c r="K18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2045,13 +2202,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>5</v>
@@ -2063,9 +2220,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2074,15 +2234,24 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>100</v>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2091,7 +2260,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2100,22 +2269,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>104</v>
+      <c r="D23" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
@@ -2145,15 +2314,16 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" display="https://github.com/enotMain/OODB/issues/1"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://github.com/magasumovn/oodb"/>
-    <hyperlink ref="D12" r:id="rId3" display="https://github.com/wasde08/oodb/tree/master"/>
-    <hyperlink ref="D14" r:id="rId4" display="https://github.com/Sofiya753/oodb"/>
-    <hyperlink ref="D15" r:id="rId5" display="https://github.com/TatProg/OODB"/>
-    <hyperlink ref="D16" r:id="rId6" display="https://github.com/Nugum/oodb/tree/master/src/main/java"/>
-    <hyperlink ref="D18" r:id="rId7" display="https://github.com/IORazutkin/OODB"/>
-    <hyperlink ref="D19" r:id="rId8" display="https://github.com/magnat1c/oodb.git"/>
-    <hyperlink ref="D20" r:id="rId9" display="https://github.com/VladislavSakhno13/database.git"/>
-    <hyperlink ref="D23" r:id="rId10" display="https://github.com/MIHamatyanov/oodb"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://github.com/Rom555/OODB/issues/1"/>
+    <hyperlink ref="D10" r:id="rId3" display="https://github.com/magasumovn/oodb"/>
+    <hyperlink ref="D12" r:id="rId4" display="https://github.com/wasde08/oodb/tree/master"/>
+    <hyperlink ref="D14" r:id="rId5" display="https://github.com/Sofiya753/oodb"/>
+    <hyperlink ref="D15" r:id="rId6" display="https://github.com/TatProg/OODB"/>
+    <hyperlink ref="D16" r:id="rId7" display="https://github.com/Nugum/oodb/tree/master/src/main/java"/>
+    <hyperlink ref="D18" r:id="rId8" display="https://github.com/IORazutkin/OODB"/>
+    <hyperlink ref="D19" r:id="rId9" display="https://github.com/magnat1c/oodb.git"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://github.com/VladislavSakhno13/database.git"/>
+    <hyperlink ref="D23" r:id="rId11" display="https://github.com/MIHamatyanov/oodb"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2196,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2390,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,10 +2455,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2466,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2474,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,10 +2490,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,7 +2517,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2525,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2568,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/doc/oodb_implementation.xlsx
+++ b/doc/oodb_implementation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="751" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,9 @@
     <sheet name="753" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Нейронные сети" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="65" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="651" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="652" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Лист8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,8 +26,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Проверил на гите</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="162">
   <si>
     <t xml:space="preserve">Лабораторная 1</t>
   </si>
@@ -200,6 +226,9 @@
     <t xml:space="preserve">https://github.com/Mindubaev/oodb/blob/master/lab2/</t>
   </si>
   <si>
+    <t xml:space="preserve">+20 баллов</t>
+  </si>
+  <si>
     <t xml:space="preserve">Отабоев Диас Алишер Угли</t>
   </si>
   <si>
@@ -351,6 +380,162 @@
   </si>
   <si>
     <t xml:space="preserve">Еналиев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">семестр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">антиплагиат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прислали работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеева Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арсланова Динара Вадимовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваисов Дениз Тимурович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валеев Руслан Радикович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Габдрахманов Руслан Тагирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закиров Азамат Ильдарович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарубежнова Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зиядинов Нариман Ваитович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ибрагимов Шоаббос Рашид Угли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каштанов Артем Валерьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курасов Илья Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лукина Дарья Васильевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Милитчук Михаил Игоревич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мухтарова Диана Фаатовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попов Роман Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рафикова Инна Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салахиев Искандер Айратович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сафеева Анастасия Вячеславовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенов Петр Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ситдиков Руслан Рустемович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимергалеев Тимур Ринатович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Филянин Даниил Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хамраева Анора -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бурджумов Чингиз Низамиевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галимзянов Азат Айдарович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гарифзянов Нияз Илфатович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гришин Андрей Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Долганов Кирилл Анатольевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Еналиев Дамир Раисович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закиров Фарит Фанисович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исломов Шахзод Абдуджалолович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казанков Андрей Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мамлеев Руслан Фаилевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сафронова Юлиана Олеговна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сибиряков Максим Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сойлу Мурат Мустафович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татаркин Денис Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тегенёва Дарья Анатольевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трофимова Анна Анатольевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тунасова Сария Фаниловна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хадеева Аделя Рустемовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хатмуллин Рамиль Рустемович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хуснутдинов Айнур Радикович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чинар М Фарида Латифовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чэн Максим Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлев Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гр/кол-во лр</t>
   </si>
 </sst>
 </file>
@@ -360,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -483,8 +668,22 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,7 +717,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFCE181E"/>
       </patternFill>
     </fill>
     <fill>
@@ -539,8 +738,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -561,6 +766,13 @@
       <bottom style="thin">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -637,7 +849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,6 +894,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +958,7 @@
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -735,7 +979,7 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -761,7 +1005,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -777,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M10" activeCellId="1" sqref="A1:E4 M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,8 +1281,17 @@
       <c r="G9" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J9" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1342,14 +1595,14 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="A1:E4 M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1431,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1452,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1714,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1723,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1732,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +1741,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1511,8 +1764,11 @@
       <c r="K8" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1521,7 +1777,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1570,10 +1826,13 @@
       <c r="M12" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1585,19 +1844,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -1614,34 +1873,47 @@
     </row>
     <row r="15" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="F15" s="6"/>
+      <c r="G15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J15" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>5</v>
@@ -1657,9 +1929,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
@@ -1672,10 +1944,13 @@
       <c r="G18" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1687,16 +1962,16 @@
     </row>
     <row r="20" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1705,14 +1980,20 @@
     </row>
     <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
@@ -1753,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A1:E4 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1847,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -1856,13 +2137,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
@@ -1885,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -1894,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -1903,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1912,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
@@ -1944,13 +2225,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
@@ -1973,19 +2254,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -2002,13 +2283,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -2025,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -2057,13 +2338,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
@@ -2089,13 +2370,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -2121,13 +2402,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,13 +2422,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -2164,7 +2451,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -2173,13 +2460,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -2202,13 +2489,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>5</v>
@@ -2234,13 +2521,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
@@ -2260,7 +2547,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2269,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -2278,13 +2565,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
@@ -2313,17 +2600,17 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://github.com/enotMain/OODB/issues/1"/>
-    <hyperlink ref="D9" r:id="rId2" display="https://github.com/Rom555/OODB/issues/1"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://github.com/magasumovn/oodb"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://github.com/wasde08/oodb/tree/master"/>
-    <hyperlink ref="D14" r:id="rId5" display="https://github.com/Sofiya753/oodb"/>
-    <hyperlink ref="D15" r:id="rId6" display="https://github.com/TatProg/OODB"/>
-    <hyperlink ref="D16" r:id="rId7" display="https://github.com/Nugum/oodb/tree/master/src/main/java"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://github.com/IORazutkin/OODB"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://github.com/magnat1c/oodb.git"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://github.com/VladislavSakhno13/database.git"/>
-    <hyperlink ref="D23" r:id="rId11" display="https://github.com/MIHamatyanov/oodb"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://github.com/enotMain/OODB/issues/1"/>
+    <hyperlink ref="D9" r:id="rId3" display="https://github.com/Rom555/OODB/issues/1"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://github.com/magasumovn/oodb"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://github.com/wasde08/oodb/tree/master"/>
+    <hyperlink ref="D14" r:id="rId6" display="https://github.com/Sofiya753/oodb"/>
+    <hyperlink ref="D15" r:id="rId7" display="https://github.com/TatProg/OODB"/>
+    <hyperlink ref="D16" r:id="rId8" display="https://github.com/Nugum/oodb/tree/master/src/main/java"/>
+    <hyperlink ref="D18" r:id="rId9" display="https://github.com/IORazutkin/OODB"/>
+    <hyperlink ref="D19" r:id="rId10" display="https://github.com/magnat1c/oodb.git"/>
+    <hyperlink ref="D20" r:id="rId11" display="https://github.com/VladislavSakhno13/database.git"/>
+    <hyperlink ref="D23" r:id="rId12" display="https://github.com/MIHamatyanov/oodb"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2332,6 +2619,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2343,7 +2631,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,7 +2846,7 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2568,7 +2856,1040 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A1:E4 B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>76</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>76</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="A1:E4 H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E1" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>751</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
+        <v>752</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>753</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/oodb_implementation.xlsx
+++ b/doc/oodb_implementation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="751" sheetId="1" state="visible" r:id="rId2"/>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="1" sqref="A1:E4 M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1226,6 +1226,9 @@
       <c r="M7" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="O7" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -1375,6 +1378,9 @@
       </c>
       <c r="M14" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,7 +1602,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="A1:E4 M15"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2035,7 +2041,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="A1:E4 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2631,7 +2637,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:E4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2846,7 +2852,7 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:E4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2878,7 +2884,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A1:E4 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3406,7 +3412,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="A1:E4 H8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3815,8 +3821,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/oodb_implementation.xlsx
+++ b/doc/oodb_implementation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="751" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
   <si>
     <t xml:space="preserve">Лабораторная 1</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">Лабораторная 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Лабораторная 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">зачет</t>
   </si>
   <si>
@@ -181,6 +184,15 @@
     <t xml:space="preserve">Шайдуллин Ильшат Рустемович</t>
   </si>
   <si>
+    <t xml:space="preserve">12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y (справка за пропущенные)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ахматгалеев Ирек Ильдарович</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">Чернявский Богдан Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/03</t>
   </si>
   <si>
     <t xml:space="preserve">Валиева Гульназ Ильгизовна</t>
@@ -1019,10 +1034,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1063,51 +1078,61 @@
         <v>6</v>
       </c>
       <c r="P1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1115,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -1133,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,31 +1166,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1173,11 +1204,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="L5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,11 +1216,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="L6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1197,19 +1228,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>5</v>
@@ -1218,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>5</v>
@@ -1235,37 +1266,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
@@ -1288,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>5</v>
@@ -1302,11 +1336,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6"/>
       <c r="L10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1314,11 +1348,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6"/>
       <c r="L11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,11 +1360,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6"/>
       <c r="L12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1338,11 +1372,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6"/>
       <c r="L13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1350,19 +1384,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -1371,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -1388,11 +1422,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6"/>
       <c r="L15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -1429,11 +1463,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6"/>
       <c r="L17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1441,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>4</v>
@@ -1456,13 +1490,13 @@
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>5</v>
@@ -1473,11 +1507,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6"/>
       <c r="L19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1485,11 +1519,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6"/>
       <c r="L20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,13 +1531,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>5</v>
@@ -1526,13 +1560,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>6</v>
@@ -1544,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>5</v>
@@ -1558,14 +1592,202 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1573,6 +1795,7 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/danivichkin/oodb"/>
@@ -1599,10 +1822,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1648,57 +1871,57 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>5</v>
@@ -1713,7 +1936,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1722,7 +1945,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1731,7 +1954,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1740,7 +1963,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1749,13 +1972,13 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>5</v>
@@ -1773,10 +1996,13 @@
       <c r="M8" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="O8" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1785,19 +2011,19 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="J10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1806,19 +2032,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5</v>
@@ -1833,36 +2059,36 @@
         <v>5</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="J13" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -1871,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -1879,7 +2105,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>5</v>
@@ -1896,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>4</v>
@@ -1904,7 +2130,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1913,13 +2139,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>5</v>
@@ -1937,7 +2163,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
@@ -1956,19 +2182,19 @@
     </row>
     <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="J19" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1977,7 +2203,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1986,24 +2212,146 @@
     </row>
     <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>53</v>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2038,10 +2386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2087,46 +2435,46 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2143,13 +2491,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
@@ -2172,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -2181,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -2190,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -2199,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
@@ -2217,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>5</v>
@@ -2231,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
@@ -2260,19 +2608,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -2281,6 +2629,9 @@
         <v>5</v>
       </c>
       <c r="M10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2289,13 +2640,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -2304,6 +2655,9 @@
         <v>5</v>
       </c>
       <c r="I11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2312,13 +2666,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -2330,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>5</v>
@@ -2344,13 +2698,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
@@ -2362,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>5</v>
@@ -2376,13 +2730,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -2394,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -2408,13 +2762,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>5</v>
@@ -2428,13 +2782,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -2457,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -2466,13 +2820,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -2487,6 +2841,9 @@
         <v>5</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2495,13 +2852,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>5</v>
@@ -2513,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>5</v>
@@ -2527,13 +2884,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
@@ -2553,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2562,7 +2919,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -2571,28 +2928,234 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>5</v>
+      <c r="C43" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +3247,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +3258,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +3312,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +3347,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,7 +3358,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +3374,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +3382,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +3393,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +3425,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2896,16 +3459,16 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="14" t="n">
         <v>100</v>
@@ -2925,13 +3488,13 @@
         <v>50</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" s="14" t="n">
         <v>85</v>
@@ -2951,13 +3514,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="0" t="n">
@@ -2977,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C6" s="14" t="n">
         <v>76</v>
@@ -2989,13 +3552,13 @@
         <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C7" s="14" t="n">
         <v>95</v>
@@ -3015,13 +3578,13 @@
         <v>45</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3592,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C8" s="14"/>
     </row>
@@ -3038,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C9" s="14" t="n">
         <v>78</v>
@@ -3050,10 +3613,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C10" s="14" t="n">
         <v>100</v>
@@ -3073,13 +3636,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C11" s="14" t="n">
         <v>76</v>
@@ -3104,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C12" s="14" t="n">
         <v>57</v>
@@ -3116,13 +3679,13 @@
         <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C13" s="14" t="n">
         <v>100</v>
@@ -3142,7 +3705,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>95</v>
@@ -3162,13 +3725,13 @@
         <v>45</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3739,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C15" s="14" t="n">
         <v>90</v>
@@ -3193,7 +3756,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C16" s="14" t="n">
         <v>95</v>
@@ -3205,13 +3768,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,7 +3782,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C17" s="14" t="n">
         <v>100</v>
@@ -3231,13 +3794,13 @@
         <v>50</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C18" s="14" t="n">
         <v>90</v>
@@ -3257,10 +3820,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3831,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C19" s="14" t="n">
         <v>76</v>
@@ -3280,13 +3843,13 @@
         <v>36</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3857,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C20" s="14" t="n">
         <v>95</v>
@@ -3306,13 +3869,13 @@
         <v>45</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3883,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C21" s="14" t="n">
         <v>90</v>
@@ -3332,13 +3895,13 @@
         <v>45</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -3355,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C23" s="14"/>
     </row>
@@ -3364,7 +3927,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C24" s="14" t="n">
         <v>95</v>
@@ -3376,13 +3939,13 @@
         <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +3953,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3424,16 +3987,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -3450,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14"/>
     </row>
@@ -3459,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C4" s="14" t="n">
         <v>80</v>
@@ -3476,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C5" s="14" t="n">
         <v>100</v>
@@ -3488,13 +4051,13 @@
         <v>50</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3502,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C6" s="14" t="n">
         <v>80</v>
@@ -3519,7 +4082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C7" s="14" t="n">
         <v>78</v>
@@ -3536,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C8" s="14" t="n">
         <v>100</v>
@@ -3548,10 +4111,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3559,7 +4122,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C9" s="14"/>
     </row>
@@ -3568,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C10" s="14" t="n">
         <v>90</v>
@@ -3580,13 +4143,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3594,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C11" s="14" t="n">
         <v>80</v>
@@ -3606,10 +4169,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3617,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C12" s="14" t="n">
         <v>80</v>
@@ -3634,7 +4197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -3643,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C14" s="14"/>
     </row>
@@ -3652,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C15" s="14" t="n">
         <v>90</v>
@@ -3664,13 +4227,13 @@
         <v>50</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C16" s="14"/>
     </row>
@@ -3687,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C17" s="14" t="n">
         <v>80</v>
@@ -3704,7 +4267,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C18" s="14" t="n">
         <v>65</v>
@@ -3721,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C19" s="14" t="n">
         <v>75</v>
@@ -3738,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C20" s="14"/>
     </row>
@@ -3747,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C21" s="14"/>
     </row>
@@ -3756,7 +4319,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C22" s="14" t="n">
         <v>80</v>
@@ -3773,7 +4336,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C23" s="14"/>
     </row>
@@ -3782,7 +4345,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
@@ -3794,13 +4357,13 @@
         <v>50</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +4395,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" s="17" t="n">
         <v>6</v>

--- a/doc/oodb_implementation.xlsx
+++ b/doc/oodb_implementation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="751" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="169">
   <si>
     <t xml:space="preserve">Лабораторная 1</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Лабораторная 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лабораторная 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лабораторная 10</t>
   </si>
   <si>
     <t xml:space="preserve">зачет</t>
@@ -864,7 +870,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -899,6 +905,10 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1034,10 +1044,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,57 +1092,77 @@
         <v>7</v>
       </c>
       <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1140,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -1158,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,28 +1196,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>5</v>
@@ -1204,11 +1234,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="L5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1216,11 +1246,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6"/>
       <c r="L6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1228,19 +1258,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>5</v>
@@ -1249,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>5</v>
@@ -1258,6 +1288,9 @@
         <v>5</v>
       </c>
       <c r="O7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1266,34 +1299,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>5</v>
@@ -1307,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
@@ -1322,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>5</v>
@@ -1336,11 +1369,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6"/>
       <c r="L10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1348,11 +1381,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6"/>
       <c r="L11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1360,11 +1393,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6"/>
       <c r="L12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1372,11 +1405,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6"/>
       <c r="L13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1384,19 +1417,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -1405,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -1422,11 +1455,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6"/>
       <c r="L15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,13 +1467,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -1463,11 +1496,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6"/>
       <c r="L17" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1475,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>4</v>
@@ -1490,13 +1523,13 @@
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>5</v>
@@ -1507,11 +1540,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6"/>
       <c r="L19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1519,11 +1552,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6"/>
       <c r="L20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,13 +1564,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>5</v>
@@ -1560,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>6</v>
@@ -1578,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>5</v>
@@ -1592,15 +1625,15 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,10 +1687,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,18 +1698,18 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
+      <c r="B35" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1805,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,11 +1816,11 @@
         <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1796,6 +1829,8 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/danivichkin/oodb"/>
@@ -1824,8 +1859,8 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="1" sqref="T7 B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,57 +1906,57 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>5</v>
@@ -1936,7 +1971,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1945,7 +1980,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1954,7 +1989,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1963,7 +1998,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1972,13 +2007,13 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>5</v>
@@ -2002,7 +2037,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2011,19 +2046,19 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="J10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2032,19 +2067,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5</v>
@@ -2059,36 +2094,36 @@
         <v>5</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="J13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
@@ -2097,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -2105,7 +2140,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>5</v>
@@ -2122,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>4</v>
@@ -2130,7 +2165,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2139,13 +2174,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>5</v>
@@ -2163,7 +2198,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
@@ -2182,19 +2217,19 @@
     </row>
     <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="J19" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2203,7 +2238,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2212,12 +2247,12 @@
     </row>
     <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="s">
-        <v>76</v>
+      <c r="B23" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
@@ -2229,129 +2264,129 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
-        <v>76</v>
+      <c r="B47" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2388,8 +2423,8 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="T7 B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2435,46 +2470,46 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2491,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
@@ -2520,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -2529,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -2538,22 +2573,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
@@ -2565,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>5</v>
@@ -2575,17 +2610,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
@@ -2608,19 +2643,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -2640,13 +2675,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -2666,13 +2701,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -2684,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>5</v>
@@ -2698,13 +2733,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
@@ -2716,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>5</v>
@@ -2730,13 +2765,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -2748,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>5</v>
@@ -2762,15 +2797,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="11" t="n">
+        <v>102</v>
+      </c>
+      <c r="E15" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -2782,13 +2817,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>5</v>
@@ -2811,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -2820,13 +2855,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -2852,13 +2887,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>5</v>
@@ -2870,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>5</v>
@@ -2884,13 +2919,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
@@ -2910,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2919,7 +2954,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -2928,13 +2963,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
@@ -2954,7 +2989,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,26 +3035,26 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +3070,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3081,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,10 +3092,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3103,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,10 +3122,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,7 +3141,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3149,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3160,10 @@
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,7 +3179,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,10 +3187,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3235,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="T7 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3282,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3293,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3304,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,7 +3339,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3347,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3382,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3393,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3409,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,10 +3417,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3428,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3450,7 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="T7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3425,7 +3460,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +3482,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="T7 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3459,26 +3494,26 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="14" t="n">
+      <c r="B3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -3487,24 +3522,24 @@
       <c r="E3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>119</v>
+      <c r="F3" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="14" t="n">
+      <c r="B4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="15" t="n">
         <v>85</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -3513,36 +3548,36 @@
       <c r="E4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>119</v>
+      <c r="F4" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="14" t="n">
+      <c r="B6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <v>76</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -3551,24 +3586,24 @@
       <c r="E6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>119</v>
+      <c r="F6" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="A7" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -3577,33 +3612,33 @@
       <c r="E7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>119</v>
+      <c r="F7" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="14" t="n">
+      <c r="B9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <v>78</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -3612,21 +3647,21 @@
       <c r="E9" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>119</v>
+      <c r="F9" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="B10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -3635,24 +3670,24 @@
       <c r="E10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>119</v>
+      <c r="F10" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="B11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="15" t="n">
         <v>76</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -3663,13 +3698,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="15" t="n">
         <v>57</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -3678,24 +3713,24 @@
       <c r="E12" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>119</v>
+      <c r="F12" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="B13" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
@@ -3704,18 +3739,18 @@
       <c r="E13" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>119</v>
+      <c r="F13" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="14" t="n">
+      <c r="B14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -3724,24 +3759,24 @@
       <c r="E14" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>119</v>
+      <c r="F14" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="B15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D15" s="0" t="n">
@@ -3752,13 +3787,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14" t="n">
+      <c r="B16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -3767,24 +3802,24 @@
       <c r="E16" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>119</v>
+      <c r="F16" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="B17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -3793,24 +3828,24 @@
       <c r="E17" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>119</v>
+      <c r="F17" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -3819,21 +3854,21 @@
       <c r="E18" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>119</v>
+      <c r="F18" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="B19" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="15" t="n">
         <v>76</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -3842,24 +3877,24 @@
       <c r="E19" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>119</v>
+      <c r="F19" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="14" t="n">
+      <c r="B20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -3868,24 +3903,24 @@
       <c r="E20" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>119</v>
+      <c r="F20" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="14" t="n">
+      <c r="B21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -3894,42 +3929,42 @@
       <c r="E21" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>119</v>
+      <c r="F21" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="14" t="n">
+      <c r="B24" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D24" s="0" t="n">
@@ -3938,22 +3973,22 @@
       <c r="E24" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>119</v>
+      <c r="F24" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>141</v>
+      <c r="B25" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3975,7 +4010,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="T7 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3987,44 +4022,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="14" t="n">
+      <c r="B4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -4035,13 +4070,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="14" t="n">
+      <c r="B5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -4050,24 +4085,24 @@
       <c r="E5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>119</v>
+      <c r="F5" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="14" t="n">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -4078,13 +4113,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="B7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="15" t="n">
         <v>78</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -4095,13 +4130,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="14" t="n">
+      <c r="B8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -4110,30 +4145,30 @@
       <c r="E8" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>119</v>
+      <c r="F8" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="B10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -4142,24 +4177,24 @@
       <c r="E10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>119</v>
+      <c r="F10" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="B11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -4168,21 +4203,21 @@
       <c r="E11" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>119</v>
+      <c r="F11" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -4193,31 +4228,31 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="B15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D15" s="0" t="n">
@@ -4226,33 +4261,33 @@
       <c r="E15" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>119</v>
+      <c r="F15" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="B17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -4263,13 +4298,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="15" t="n">
         <v>65</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -4280,13 +4315,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="B19" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="15" t="n">
         <v>75</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -4297,31 +4332,31 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="14" t="n">
+      <c r="B22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="15" t="n">
         <v>80</v>
       </c>
       <c r="D22" s="0" t="n">
@@ -4332,20 +4367,20 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>165</v>
+      <c r="B24" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
@@ -4356,14 +4391,14 @@
       <c r="E24" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>119</v>
+      <c r="F24" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4420,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4394,70 +4429,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="17" t="n">
+      <c r="A1" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D1" s="17" t="n">
+      <c r="C1" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="n">
         <v>-4</v>
       </c>
-      <c r="E1" s="17" t="n">
+      <c r="E1" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="18" t="n">
         <v>751</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="19" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="18" t="n">
         <v>752</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="19" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="18" t="n">
         <v>753</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="19" t="n">
         <v>7</v>
       </c>
     </row>
